--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H2">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I2">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J2">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N2">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O2">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P2">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q2">
-        <v>5.445113819318633</v>
+        <v>6.446611342803999</v>
       </c>
       <c r="R2">
-        <v>5.445113819318633</v>
+        <v>25.786445371216</v>
       </c>
       <c r="S2">
-        <v>0.0001710685683605716</v>
+        <v>0.0001732259627368101</v>
       </c>
       <c r="T2">
-        <v>0.0001710685683605716</v>
+        <v>8.975818546809733E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H3">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I3">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J3">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N3">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O3">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P3">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q3">
-        <v>89.4582506273897</v>
+        <v>98.39789940038584</v>
       </c>
       <c r="R3">
-        <v>89.4582506273897</v>
+        <v>590.3873964023149</v>
       </c>
       <c r="S3">
-        <v>0.002810500454292385</v>
+        <v>0.002644035749718044</v>
       </c>
       <c r="T3">
-        <v>0.002810500454292385</v>
+        <v>0.002055037080971939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H4">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I4">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J4">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N4">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O4">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P4">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q4">
-        <v>4.621466725952241</v>
+        <v>0.7198452292628332</v>
       </c>
       <c r="R4">
-        <v>4.621466725952241</v>
+        <v>4.319071375577</v>
       </c>
       <c r="S4">
-        <v>0.0001451921342267914</v>
+        <v>1.934285723611138E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001451921342267914</v>
+        <v>1.50339453149959E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H5">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I5">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J5">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N5">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O5">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P5">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q5">
-        <v>64.05481913810181</v>
+        <v>0.2177389065928333</v>
       </c>
       <c r="R5">
-        <v>64.05481913810181</v>
+        <v>1.306433439557</v>
       </c>
       <c r="S5">
-        <v>0.002012403518118122</v>
+        <v>5.850830725495263E-06</v>
       </c>
       <c r="T5">
-        <v>0.002012403518118122</v>
+        <v>4.547470319440612E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.05697488042847</v>
+        <v>31.9000205</v>
       </c>
       <c r="H6">
-        <v>4.05697488042847</v>
+        <v>63.800041</v>
       </c>
       <c r="I6">
-        <v>0.0006922899850811416</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J6">
-        <v>0.0006922899850811416</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N6">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O6">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P6">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q6">
-        <v>0.7335039842331531</v>
+        <v>4.987461871773333</v>
       </c>
       <c r="R6">
-        <v>0.7335039842331531</v>
+        <v>29.92477123064</v>
       </c>
       <c r="S6">
-        <v>2.304441755181574E-05</v>
+        <v>0.0001340173679487375</v>
       </c>
       <c r="T6">
-        <v>2.304441755181574E-05</v>
+        <v>0.0001041629866987559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.05697488042847</v>
+        <v>31.9000205</v>
       </c>
       <c r="H7">
-        <v>4.05697488042847</v>
+        <v>63.800041</v>
       </c>
       <c r="I7">
-        <v>0.0006922899850811416</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J7">
-        <v>0.0006922899850811416</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N7">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O7">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P7">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q7">
-        <v>12.05080103650236</v>
+        <v>68.39579720338376</v>
       </c>
       <c r="R7">
-        <v>12.05080103650236</v>
+        <v>273.5831888135351</v>
       </c>
       <c r="S7">
-        <v>0.0003785987491388225</v>
+        <v>0.001837853592792277</v>
       </c>
       <c r="T7">
-        <v>0.0003785987491388225</v>
+        <v>0.0009522960706282402</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H8">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N8">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O8">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P8">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q8">
-        <v>0.6225515882625022</v>
+        <v>0.9119454748453332</v>
       </c>
       <c r="R8">
-        <v>0.6225515882625022</v>
+        <v>5.471672849071999</v>
       </c>
       <c r="S8">
-        <v>1.955863779317525E-05</v>
+        <v>2.450475520288601E-05</v>
       </c>
       <c r="T8">
-        <v>1.955863779317525E-05</v>
+        <v>1.904595299342715E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H9">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N9">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O9">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P9">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q9">
-        <v>8.62873883011155</v>
+        <v>13.91948642795611</v>
       </c>
       <c r="R9">
-        <v>8.62873883011155</v>
+        <v>125.275377851605</v>
       </c>
       <c r="S9">
-        <v>0.000271088180597328</v>
+        <v>0.0003740285103391827</v>
       </c>
       <c r="T9">
-        <v>0.000271088180597328</v>
+        <v>0.0004360620643100326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2075.53807108196</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H10">
-        <v>2075.53807108196</v>
+        <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.3541738025533248</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J10">
-        <v>0.3541738025533248</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N10">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O10">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P10">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q10">
-        <v>375.2587801099286</v>
+        <v>0.1018301809287778</v>
       </c>
       <c r="R10">
-        <v>375.2587801099286</v>
+        <v>0.9164716283589999</v>
       </c>
       <c r="S10">
-        <v>0.01178946563988868</v>
+        <v>2.73626409117113E-06</v>
       </c>
       <c r="T10">
-        <v>0.01178946563988868</v>
+        <v>3.190080261559414E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2075.53807108196</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H11">
-        <v>2075.53807108196</v>
+        <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.3541738025533248</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J11">
-        <v>0.3541738025533248</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N11">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O11">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P11">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q11">
-        <v>6165.159281354241</v>
+        <v>0.03080161033544444</v>
       </c>
       <c r="R11">
-        <v>6165.159281354241</v>
+        <v>0.277214493019</v>
       </c>
       <c r="S11">
-        <v>0.1936901609355403</v>
+        <v>8.276656246940223E-07</v>
       </c>
       <c r="T11">
-        <v>0.1936901609355403</v>
+        <v>9.649360166026873E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2075.53807108196</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H12">
-        <v>2075.53807108196</v>
+        <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.3541738025533248</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J12">
-        <v>0.3541738025533248</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N12">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O12">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P12">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q12">
-        <v>318.4958154128128</v>
+        <v>0.7055324174311111</v>
       </c>
       <c r="R12">
-        <v>318.4958154128128</v>
+        <v>6.34979175688</v>
       </c>
       <c r="S12">
-        <v>0.01000614954607517</v>
+        <v>1.895825973562945E-05</v>
       </c>
       <c r="T12">
-        <v>0.01000614954607517</v>
+        <v>2.2102534024873E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2075.53807108196</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H13">
-        <v>2075.53807108196</v>
+        <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.3541738025533248</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J13">
-        <v>0.3541738025533248</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.12688988333106</v>
+        <v>2.1440675</v>
       </c>
       <c r="N13">
-        <v>2.12688988333106</v>
+        <v>4.288135</v>
       </c>
       <c r="O13">
-        <v>0.3915818319480014</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P13">
-        <v>0.3915818319480014</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q13">
-        <v>4414.440925852683</v>
+        <v>9.675352590890833</v>
       </c>
       <c r="R13">
-        <v>4414.440925852683</v>
+        <v>58.052115545345</v>
       </c>
       <c r="S13">
-        <v>0.1386880264318207</v>
+        <v>0.0002599850027016141</v>
       </c>
       <c r="T13">
-        <v>0.1386880264318207</v>
+        <v>0.0002020694391539076</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3693.07275084274</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H14">
-        <v>3693.07275084274</v>
+        <v>8081.046875</v>
       </c>
       <c r="I14">
-        <v>0.630193026808801</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J14">
-        <v>0.630193026808801</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N14">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O14">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P14">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q14">
-        <v>667.7102167612994</v>
+        <v>544.3608669583333</v>
       </c>
       <c r="R14">
-        <v>667.7102167612994</v>
+        <v>3266.16520175</v>
       </c>
       <c r="S14">
-        <v>0.02097738167672971</v>
+        <v>0.01462744227017206</v>
       </c>
       <c r="T14">
-        <v>0.02097738167672971</v>
+        <v>0.01136895984412672</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3693.07275084274</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H15">
-        <v>3693.07275084274</v>
+        <v>8081.046875</v>
       </c>
       <c r="I15">
-        <v>0.630193026808801</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J15">
-        <v>0.630193026808801</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N15">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O15">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P15">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q15">
-        <v>10969.86948290744</v>
+        <v>8308.856075876736</v>
       </c>
       <c r="R15">
-        <v>10969.86948290744</v>
+        <v>74779.70468289062</v>
       </c>
       <c r="S15">
-        <v>0.3446392361690108</v>
+        <v>0.2232660721189535</v>
       </c>
       <c r="T15">
-        <v>0.3446392361690108</v>
+        <v>0.2602953026503134</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3693.07275084274</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H16">
-        <v>3693.07275084274</v>
+        <v>8081.046875</v>
       </c>
       <c r="I16">
-        <v>0.630193026808801</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J16">
-        <v>0.630193026808801</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N16">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O16">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P16">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q16">
-        <v>566.710017776422</v>
+        <v>60.78473669965277</v>
       </c>
       <c r="R16">
-        <v>566.710017776422</v>
+        <v>547.062630296875</v>
       </c>
       <c r="S16">
-        <v>0.01780426904441417</v>
+        <v>0.001633337884756208</v>
       </c>
       <c r="T16">
-        <v>0.01780426904441417</v>
+        <v>0.001904231014626911</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3693.07275084274</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H17">
-        <v>3693.07275084274</v>
+        <v>8081.046875</v>
       </c>
       <c r="I17">
-        <v>0.630193026808801</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J17">
-        <v>0.630193026808801</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N17">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O17">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P17">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q17">
-        <v>7854.759072173032</v>
+        <v>18.38617742881944</v>
       </c>
       <c r="R17">
-        <v>7854.759072173032</v>
+        <v>165.475596859375</v>
       </c>
       <c r="S17">
-        <v>0.2467721399186463</v>
+        <v>0.0004940523193960276</v>
       </c>
       <c r="T17">
-        <v>0.2467721399186463</v>
+        <v>0.0005759921190970834</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.716631108903</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H18">
-        <v>27.716631108903</v>
+        <v>8081.046875</v>
       </c>
       <c r="I18">
-        <v>0.004729619162654382</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J18">
-        <v>0.004729619162654382</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N18">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O18">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P18">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q18">
-        <v>5.011186893460323</v>
+        <v>421.1482473611111</v>
       </c>
       <c r="R18">
-        <v>5.011186893460323</v>
+        <v>3790.33422625</v>
       </c>
       <c r="S18">
-        <v>0.0001574359317540931</v>
+        <v>0.01131661375638583</v>
       </c>
       <c r="T18">
-        <v>0.0001574359317540931</v>
+        <v>0.01319350215076896</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.716631108903</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H19">
-        <v>27.716631108903</v>
+        <v>8081.046875</v>
       </c>
       <c r="I19">
-        <v>0.004729619162654382</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J19">
-        <v>0.004729619162654382</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N19">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O19">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P19">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q19">
-        <v>82.32922725423586</v>
+        <v>5775.436656888021</v>
       </c>
       <c r="R19">
-        <v>82.32922725423586</v>
+        <v>34652.61994132813</v>
       </c>
       <c r="S19">
-        <v>0.002586528676525747</v>
+        <v>0.1551909246447198</v>
       </c>
       <c r="T19">
-        <v>0.002586528676525747</v>
+        <v>0.1206198156773147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.716631108903</v>
+        <v>3826.468994</v>
       </c>
       <c r="H20">
-        <v>27.716631108903</v>
+        <v>11479.406982</v>
       </c>
       <c r="I20">
-        <v>0.004729619162654382</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J20">
-        <v>0.004729619162654382</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N20">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O20">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P20">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q20">
-        <v>4.253177115139319</v>
+        <v>773.2834660594721</v>
       </c>
       <c r="R20">
-        <v>4.253177115139319</v>
+        <v>4639.700796356832</v>
       </c>
       <c r="S20">
-        <v>0.0001336216182459661</v>
+        <v>0.02077878838254048</v>
       </c>
       <c r="T20">
-        <v>0.0001336216182459661</v>
+        <v>0.01615000123517362</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.716631108903</v>
+        <v>3826.468994</v>
       </c>
       <c r="H21">
-        <v>27.716631108903</v>
+        <v>11479.406982</v>
       </c>
       <c r="I21">
-        <v>0.004729619162654382</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J21">
-        <v>0.004729619162654382</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N21">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O21">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P21">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q21">
-        <v>58.95022230554473</v>
+        <v>11803.01784227091</v>
       </c>
       <c r="R21">
-        <v>58.95022230554473</v>
+        <v>106227.1605804381</v>
       </c>
       <c r="S21">
-        <v>0.001852032936128576</v>
+        <v>0.3171571885141466</v>
       </c>
       <c r="T21">
-        <v>0.001852032936128576</v>
+        <v>0.3697584930326013</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.7236271122938</v>
+        <v>3826.468994</v>
       </c>
       <c r="H22">
-        <v>29.7236271122938</v>
+        <v>11479.406982</v>
       </c>
       <c r="I22">
-        <v>0.005072096815140756</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J22">
-        <v>0.005072096815140756</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N22">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O22">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P22">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q22">
-        <v>5.374053218299802</v>
+        <v>86.34682382893934</v>
       </c>
       <c r="R22">
-        <v>5.374053218299802</v>
+        <v>777.1214144604539</v>
       </c>
       <c r="S22">
-        <v>0.0001688360649296967</v>
+        <v>0.002320213037773714</v>
       </c>
       <c r="T22">
-        <v>0.0001688360649296967</v>
+        <v>0.002705026111440433</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.7236271122938</v>
+        <v>3826.468994</v>
       </c>
       <c r="H23">
-        <v>29.7236271122938</v>
+        <v>11479.406982</v>
       </c>
       <c r="I23">
-        <v>0.005072096815140756</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J23">
-        <v>0.005072096815140756</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N23">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O23">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P23">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q23">
-        <v>88.2907898053364</v>
+        <v>26.11820186337933</v>
       </c>
       <c r="R23">
-        <v>88.2907898053364</v>
+        <v>235.063816770414</v>
       </c>
       <c r="S23">
-        <v>0.00277382246039313</v>
+        <v>0.0007018184317546175</v>
       </c>
       <c r="T23">
-        <v>0.00277382246039313</v>
+        <v>0.0008182167553062283</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.7236271122938</v>
+        <v>3826.468994</v>
       </c>
       <c r="H24">
-        <v>29.7236271122938</v>
+        <v>11479.406982</v>
       </c>
       <c r="I24">
-        <v>0.005072096815140756</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J24">
-        <v>0.005072096815140756</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N24">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O24">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P24">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q24">
-        <v>4.561155001710674</v>
+        <v>598.2556723152534</v>
       </c>
       <c r="R24">
-        <v>4.561155001710674</v>
+        <v>5384.30105083728</v>
       </c>
       <c r="S24">
-        <v>0.0001432973271274876</v>
+        <v>0.01607564180447262</v>
       </c>
       <c r="T24">
-        <v>0.0001432973271274876</v>
+        <v>0.01874182677681464</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.7236271122938</v>
+        <v>3826.468994</v>
       </c>
       <c r="H25">
-        <v>29.7236271122938</v>
+        <v>11479.406982</v>
       </c>
       <c r="I25">
-        <v>0.005072096815140756</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J25">
-        <v>0.005072096815140756</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.12688988333106</v>
+        <v>2.1440675</v>
       </c>
       <c r="N25">
-        <v>2.12688988333106</v>
+        <v>4.288135</v>
       </c>
       <c r="O25">
-        <v>0.3915818319480014</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P25">
-        <v>0.3915818319480014</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q25">
-        <v>63.2188818010425</v>
+        <v>8204.207809793097</v>
       </c>
       <c r="R25">
-        <v>63.2188818010425</v>
+        <v>49225.24685875858</v>
       </c>
       <c r="S25">
-        <v>0.001986140962690441</v>
+        <v>0.2204540836684148</v>
       </c>
       <c r="T25">
-        <v>0.001986140962690441</v>
+        <v>0.1713446259713373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>31.75004533333333</v>
+      </c>
+      <c r="H26">
+        <v>95.250136</v>
+      </c>
+      <c r="I26">
+        <v>0.004791692225282787</v>
+      </c>
+      <c r="J26">
+        <v>0.004808539891246315</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.202088</v>
+      </c>
+      <c r="N26">
+        <v>0.404176</v>
+      </c>
+      <c r="O26">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P26">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q26">
+        <v>6.416303161322666</v>
+      </c>
+      <c r="R26">
+        <v>38.497818967936</v>
+      </c>
+      <c r="S26">
+        <v>0.0001724115559676217</v>
+      </c>
+      <c r="T26">
+        <v>0.0001340042927707444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>31.75004533333333</v>
+      </c>
+      <c r="H27">
+        <v>95.250136</v>
+      </c>
+      <c r="I27">
+        <v>0.004791692225282787</v>
+      </c>
+      <c r="J27">
+        <v>0.004808539891246315</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N27">
+        <v>9.253715</v>
+      </c>
+      <c r="O27">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P27">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q27">
+        <v>97.93529025058223</v>
+      </c>
+      <c r="R27">
+        <v>881.41761225524</v>
+      </c>
+      <c r="S27">
+        <v>0.002631605046037569</v>
+      </c>
+      <c r="T27">
+        <v>0.003068063254812331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>31.75004533333333</v>
+      </c>
+      <c r="H28">
+        <v>95.250136</v>
+      </c>
+      <c r="I28">
+        <v>0.004791692225282787</v>
+      </c>
+      <c r="J28">
+        <v>0.004808539891246315</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N28">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P28">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q28">
+        <v>0.7164609396435555</v>
+      </c>
+      <c r="R28">
+        <v>6.448148456792</v>
+      </c>
+      <c r="S28">
+        <v>1.925191847831982E-05</v>
+      </c>
+      <c r="T28">
+        <v>2.24448967966952E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>31.75004533333333</v>
+      </c>
+      <c r="H29">
+        <v>95.250136</v>
+      </c>
+      <c r="I29">
+        <v>0.004791692225282787</v>
+      </c>
+      <c r="J29">
+        <v>0.004808539891246315</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.020477</v>
+      </c>
+      <c r="O29">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P29">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q29">
+        <v>0.2167152260968889</v>
+      </c>
+      <c r="R29">
+        <v>1.950437034872</v>
+      </c>
+      <c r="S29">
+        <v>5.823323554670886E-06</v>
+      </c>
+      <c r="T29">
+        <v>6.789136175989005E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>31.75004533333333</v>
+      </c>
+      <c r="H30">
+        <v>95.250136</v>
+      </c>
+      <c r="I30">
+        <v>0.004791692225282787</v>
+      </c>
+      <c r="J30">
+        <v>0.004808539891246315</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.46904</v>
+      </c>
+      <c r="O30">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P30">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q30">
+        <v>4.964013754382222</v>
+      </c>
+      <c r="R30">
+        <v>44.67612378944</v>
+      </c>
+      <c r="S30">
+        <v>0.0001333872969713743</v>
+      </c>
+      <c r="T30">
+        <v>0.0001555099102400686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>31.75004533333333</v>
+      </c>
+      <c r="H31">
+        <v>95.250136</v>
+      </c>
+      <c r="I31">
+        <v>0.004791692225282787</v>
+      </c>
+      <c r="J31">
+        <v>0.004808539891246315</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1440675</v>
+      </c>
+      <c r="N31">
+        <v>4.288135</v>
+      </c>
+      <c r="O31">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P31">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q31">
+        <v>68.07424032272667</v>
+      </c>
+      <c r="R31">
+        <v>408.4454419363601</v>
+      </c>
+      <c r="S31">
+        <v>0.001829213084273232</v>
+      </c>
+      <c r="T31">
+        <v>0.001421728400450487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>37.747107</v>
+      </c>
+      <c r="H32">
+        <v>75.494214</v>
+      </c>
+      <c r="I32">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J32">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.202088</v>
+      </c>
+      <c r="N32">
+        <v>0.404176</v>
+      </c>
+      <c r="O32">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P32">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q32">
+        <v>7.628237359416</v>
+      </c>
+      <c r="R32">
+        <v>30.512949437664</v>
+      </c>
+      <c r="S32">
+        <v>0.0002049772648454688</v>
+      </c>
+      <c r="T32">
+        <v>0.0001062103339711056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>37.747107</v>
+      </c>
+      <c r="H33">
+        <v>75.494214</v>
+      </c>
+      <c r="I33">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J33">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N33">
+        <v>9.253715</v>
+      </c>
+      <c r="O33">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P33">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q33">
+        <v>116.433656750835</v>
+      </c>
+      <c r="R33">
+        <v>698.60194050501</v>
+      </c>
+      <c r="S33">
+        <v>0.003128671981776069</v>
+      </c>
+      <c r="T33">
+        <v>0.002431713314554624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>37.747107</v>
+      </c>
+      <c r="H34">
+        <v>75.494214</v>
+      </c>
+      <c r="I34">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J34">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N34">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P34">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q34">
+        <v>0.8517886341929999</v>
+      </c>
+      <c r="R34">
+        <v>5.110731805157999</v>
+      </c>
+      <c r="S34">
+        <v>2.288828942217202E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.77895792398409E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>37.747107</v>
+      </c>
+      <c r="H35">
+        <v>75.494214</v>
+      </c>
+      <c r="I35">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J35">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.020477</v>
+      </c>
+      <c r="O35">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P35">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q35">
+        <v>0.257649170013</v>
+      </c>
+      <c r="R35">
+        <v>1.545895020078</v>
+      </c>
+      <c r="S35">
+        <v>6.923253652271393E-06</v>
+      </c>
+      <c r="T35">
+        <v>5.38099493469758E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>37.747107</v>
+      </c>
+      <c r="H36">
+        <v>75.494214</v>
+      </c>
+      <c r="I36">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J36">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.46904</v>
+      </c>
+      <c r="O36">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P36">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q36">
+        <v>5.90163435576</v>
+      </c>
+      <c r="R36">
+        <v>35.40980613456</v>
+      </c>
+      <c r="S36">
+        <v>0.0001585819647927613</v>
+      </c>
+      <c r="T36">
+        <v>0.0001232554507091153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>37.747107</v>
+      </c>
+      <c r="H37">
+        <v>75.494214</v>
+      </c>
+      <c r="I37">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J37">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.1440675</v>
+      </c>
+      <c r="N37">
+        <v>4.288135</v>
+      </c>
+      <c r="O37">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P37">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q37">
+        <v>80.93234533772251</v>
+      </c>
+      <c r="R37">
+        <v>323.72938135089</v>
+      </c>
+      <c r="S37">
+        <v>0.002174721367889544</v>
+      </c>
+      <c r="T37">
+        <v>0.00112684635026124</v>
       </c>
     </row>
   </sheetData>
